--- a/biology/Zoologie/Deltavjatia/Deltavjatia.xlsx
+++ b/biology/Zoologie/Deltavjatia/Deltavjatia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deltavjatia vjatkensis
 Deltavjatia est un genre éteint de reptiles procolophoniens herbivores appartenant à la famille des Pareiasauridae, ayant vécu durant le Capitanien (Permien moyen), il y a 260 millions d'années dans ce qui est aujourd'hui la Russie européenne. Une seule espèce est connue, Deltavjatia vjatkensis, nommée par le paléontologue Oleg Anatolyevich Lebedev en 1987.
@@ -512,9 +524,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier spécimen de Deltavjatia est un crâne et une mandibule inférieure (catalogué PIN 2212/1), trouvé dans la formation d'Urpalov à Kotelnitch, près de la rivière Viatka[3],[4]. L'animal sera placé comme un sous-taxon de Pareiasauridae par M.S.Y. Lee, en 1997[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier spécimen de Deltavjatia est un crâne et une mandibule inférieure (catalogué PIN 2212/1), trouvé dans la formation d'Urpalov à Kotelnitch, près de la rivière Viatka,. L'animal sera placé comme un sous-taxon de Pareiasauridae par M.S.Y. Lee, en 1997.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'animal possède un grand corps mesurant environ 1,5 mètre de longueur[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'animal possède un grand corps mesurant environ 1,5 mètre de longueur.
 </t>
         </is>
       </c>
